--- a/Employee_Reports21/James Kariungi Muthee Q0525.xlsx
+++ b/Employee_Reports21/James Kariungi Muthee Q0525.xlsx
@@ -550,11 +550,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -646,11 +646,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -694,11 +694,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -742,11 +742,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -790,11 +790,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -838,11 +838,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -884,11 +884,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -930,11 +930,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -976,11 +976,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1012,11 +1012,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
